--- a/.scripts/students.xlsx
+++ b/.scripts/students.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/INF1100-201-23H-02/.scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCF2155-C3BC-0245-8C96-3232C4F2ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBA50E3-4160-1F41-BFF9-E4E2E4F3EA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{7C0932B3-466B-1040-A849-43FD9DC410A9}"/>
+    <workbookView xWindow="4520" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{7C0932B3-466B-1040-A849-43FD9DC410A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>ETUDIANTS</t>
   </si>
@@ -239,20 +239,29 @@
     <t>ziko@10.13.237.39</t>
   </si>
   <si>
-    <t>zico@localhost</t>
-  </si>
-  <si>
     <t>klyd@10.13.237.16</t>
   </si>
   <si>
     <t>klyd@localhost</t>
+  </si>
+  <si>
+    <t>DIARRAbandiougou</t>
+  </si>
+  <si>
+    <t>diarra1@10.13.237.43</t>
+  </si>
+  <si>
+    <t>diarra1@localhost.nil</t>
+  </si>
+  <si>
+    <t>zico@localhost.zacklafhel.live</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +289,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,6 +325,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -625,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA470002-E838-0F44-9F72-AEACFBD3C236}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,8 +873,8 @@
       <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,10 +905,10 @@
         <v>94937535</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,34 +1032,44 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
+        <v>300128566</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5">
+        <v>101542761</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>300128694</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>105947276</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{0E508391-2455-1642-BB41-7C64FEE5A560}"/>
-    <hyperlink ref="E15" r:id="rId2" xr:uid="{0AC62683-9405-8545-8072-926E8BFBF1B9}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{0AC62683-9405-8545-8072-926E8BFBF1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.scripts/students.xlsx
+++ b/.scripts/students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/INF1100-201-23H-02/.scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBA50E3-4160-1F41-BFF9-E4E2E4F3EA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067959BA-7A36-9247-973E-8AEB74B70040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{7C0932B3-466B-1040-A849-43FD9DC410A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ETUDIANTS</t>
   </si>
@@ -255,13 +255,33 @@
   </si>
   <si>
     <t>zico@localhost.zacklafhel.live</t>
+  </si>
+  <si>
+    <t>koinaag</t>
+  </si>
+  <si>
+    <r>
+      <t>koinaag@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.13.237.32</t>
+    </r>
+  </si>
+  <si>
+    <t>koinaag@localhost.ahmadoukoina.tech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,6 +315,18 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,6 +358,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA470002-E838-0F44-9F72-AEACFBD3C236}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,300 +810,317 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>300124734</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>94937145</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
+      <c r="A8" s="6">
+        <v>300124074</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6">
+        <v>97147101</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>300124863</v>
+        <v>300124734</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>97644305</v>
+        <v>94937145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>300124876</v>
+        <v>300124863</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>98238582</v>
+        <v>97644305</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>300125847</v>
+        <v>300124876</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>97644650</v>
+        <v>98238582</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
+        <v>300125847</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>97644650</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>300126020</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>97989532</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>300126215</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>118313035</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>300126268</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>97314948</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>300126450</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>94937535</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>300126634</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>97324827</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>300126800</v>
+        <v>300126634</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>105135304</v>
+        <v>97324827</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>300126966</v>
+        <v>300126800</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>94937166</v>
+        <v>105135304</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>300127065</v>
+        <v>300126966</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>97314712</v>
+        <v>94937166</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>300127290</v>
-      </c>
-      <c r="B20" s="2">
-        <v>300127</v>
+        <v>300127065</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>105463700</v>
+        <v>97314712</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>300128276</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>300127290</v>
+      </c>
+      <c r="B21" s="2">
+        <v>300127</v>
       </c>
       <c r="C21" s="1">
-        <v>113144317</v>
+        <v>105463700</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>300128326</v>
+        <v>300128276</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>105472970</v>
+        <v>113144317</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>300128566</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5">
-        <v>101542761</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>71</v>
+        <v>300128326</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>105472970</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
+        <v>300128566</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5">
+        <v>101542761</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>300128694</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>105947276</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{0AC62683-9405-8545-8072-926E8BFBF1B9}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{0AC62683-9405-8545-8072-926E8BFBF1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
